--- a/documents/JSON协议.xlsx
+++ b/documents/JSON协议.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
   <si>
     <t>心跳包</t>
   </si>
@@ -207,7 +207,10 @@
     <t>{"type":"publish","pubid":"158470fa-44b0-11e6-b638-ef70639ff5ec","devcode":"2016-0729-001","filename":"test.txt","restype":"txt","area":2,"showtype":"segment","startdate":"2016/07/30","enddate":"2016/08/10","showcount":2,"staytime";20,"segcount":2,"segments":"07:00:00-07:20:00,08:10:00-08:30:00","time":"2016/07/29 19:21:23"}</t>
   </si>
   <si>
-    <t>{"type":"publish","pubid":"158470fa-44b0-11e6-b638-ef70639ff5ec","devcode":"2016-0729-001","filename":"test.txt","restype":"txt","time":"2016/07/29 19:23:30"}</t>
+    <t>发布结果，Y表示发布成功，N表示发布失败</t>
+  </si>
+  <si>
+    <t>{"type":"publish","pubid":"158470fa-44b0-11e6-b638-ef70639ff5ec","devcode":"2016-0729-001","filename":"test.txt","restype":"txt","result":"Y","time":"2016/07/29 19:23:30"}</t>
   </si>
   <si>
     <t>删除终端文件</t>
@@ -243,9 +246,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -264,44 +267,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -326,9 +299,25 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -336,6 +325,52 @@
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -354,34 +389,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -394,15 +405,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -417,187 +420,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -612,16 +615,40 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -641,37 +668,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -688,23 +695,19 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,7 +722,7 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -728,133 +731,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1189,10 +1192,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E74"/>
+  <dimension ref="A1:E75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="A55" sqref="A55:E55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1834,243 +1837,258 @@
         <v>6</v>
       </c>
       <c r="C53" t="s">
+        <v>31</v>
+      </c>
+      <c r="D53" t="s">
+        <v>32</v>
+      </c>
+      <c r="E53" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="2"/>
+      <c r="B54">
+        <v>7</v>
+      </c>
+      <c r="C54" t="s">
         <v>11</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E54" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="54" s="1" customFormat="1" ht="36" customHeight="1" spans="1:5">
-      <c r="A54" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B54" s="3"/>
-      <c r="C54" s="3"/>
-      <c r="D54" s="3"/>
-      <c r="E54" s="3"/>
-    </row>
-    <row r="56" spans="1:5">
-      <c r="A56" s="2" t="s">
+    <row r="55" s="1" customFormat="1" ht="36" customHeight="1" spans="1:5">
+      <c r="A55" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
     </row>
     <row r="57" spans="1:5">
       <c r="A57" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B58" t="s">
         <v>2</v>
       </c>
-      <c r="C57" t="s">
+      <c r="C58" t="s">
         <v>3</v>
       </c>
-      <c r="D57" t="s">
+      <c r="D58" t="s">
         <v>4</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E58" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
-      <c r="A58" s="2"/>
-      <c r="B58">
-        <v>1</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>65</v>
-      </c>
-      <c r="E58" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:5">
       <c r="A59" s="2"/>
       <c r="B59">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>66</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2"/>
       <c r="B60">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C60" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E60" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2"/>
       <c r="B61">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
-      </c>
-      <c r="D61" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2"/>
       <c r="B62">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C62" t="s">
-        <v>27</v>
+        <v>40</v>
+      </c>
+      <c r="D62" t="s">
+        <v>41</v>
       </c>
       <c r="E62" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2"/>
       <c r="B63">
+        <v>5</v>
+      </c>
+      <c r="C63" t="s">
+        <v>27</v>
+      </c>
+      <c r="E63" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="2"/>
+      <c r="B64">
         <v>6</v>
       </c>
-      <c r="C63" t="s">
+      <c r="C64" t="s">
         <v>11</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E64" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="65" s="1" customFormat="1" ht="31" customHeight="1" spans="1:5">
+      <c r="A65" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+      <c r="E65" s="3"/>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="64" s="1" customFormat="1" ht="31" customHeight="1" spans="1:5">
-      <c r="A64" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B64" s="3"/>
-      <c r="C64" s="3"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="3"/>
-    </row>
-    <row r="65" spans="1:5">
-      <c r="A65" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B65">
-        <v>1</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" t="s">
-        <v>65</v>
-      </c>
-      <c r="E65" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="2"/>
-      <c r="B66">
-        <v>2</v>
-      </c>
-      <c r="C66" t="s">
-        <v>9</v>
-      </c>
-      <c r="E66" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="67" spans="1:5">
       <c r="A67" s="2"/>
       <c r="B67">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C67" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E67" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2"/>
       <c r="B68">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C68" t="s">
-        <v>40</v>
+        <v>21</v>
       </c>
       <c r="E68" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2"/>
       <c r="B69">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C69" t="s">
-        <v>31</v>
-      </c>
-      <c r="D69" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E69" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2"/>
       <c r="B70">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C70" t="s">
-        <v>27</v>
+        <v>31</v>
+      </c>
+      <c r="D70" t="s">
+        <v>32</v>
       </c>
       <c r="E70" t="s">
-        <v>34</v>
+        <v>70</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2"/>
       <c r="B71">
+        <v>6</v>
+      </c>
+      <c r="C71" t="s">
+        <v>27</v>
+      </c>
+      <c r="E71" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72" s="2"/>
+      <c r="B72">
         <v>7</v>
       </c>
-      <c r="C71" t="s">
+      <c r="C72" t="s">
         <v>11</v>
       </c>
-      <c r="E71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" s="1" customFormat="1" ht="39" customHeight="1" spans="1:5">
-      <c r="A72" s="3" t="s">
+      <c r="E72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3"/>
-    </row>
-    <row r="74" ht="60" customHeight="1" spans="1:5">
-      <c r="A74" s="4" t="s">
+    </row>
+    <row r="73" s="1" customFormat="1" ht="39" customHeight="1" spans="1:5">
+      <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B74" s="4"/>
-      <c r="C74" s="4"/>
-      <c r="D74" s="4"/>
-      <c r="E74" s="4"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
+    </row>
+    <row r="75" ht="60" customHeight="1" spans="1:5">
+      <c r="A75" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="4"/>
+      <c r="C75" s="4"/>
+      <c r="D75" s="4"/>
+      <c r="E75" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -2082,19 +2100,19 @@
     <mergeCell ref="A29:E29"/>
     <mergeCell ref="A31:E31"/>
     <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A54:E54"/>
-    <mergeCell ref="A56:E56"/>
-    <mergeCell ref="A64:E64"/>
-    <mergeCell ref="A72:E72"/>
-    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A55:E55"/>
+    <mergeCell ref="A57:E57"/>
+    <mergeCell ref="A65:E65"/>
+    <mergeCell ref="A73:E73"/>
+    <mergeCell ref="A75:E75"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A7:A9"/>
     <mergeCell ref="A13:A20"/>
     <mergeCell ref="A22:A28"/>
     <mergeCell ref="A32:A46"/>
-    <mergeCell ref="A48:A53"/>
-    <mergeCell ref="A57:A63"/>
-    <mergeCell ref="A65:A71"/>
+    <mergeCell ref="A48:A54"/>
+    <mergeCell ref="A58:A64"/>
+    <mergeCell ref="A66:A72"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/documents/JSON协议.xlsx
+++ b/documents/JSON协议.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
   <si>
     <t>心跳包</t>
   </si>
@@ -51,13 +51,22 @@
     <t>终端号</t>
   </si>
   <si>
+    <t>firstbeat</t>
+  </si>
+  <si>
+    <t>Y或N</t>
+  </si>
+  <si>
+    <t>Y表示每次连接后的第一个心跳包，N表示每次连接后的非第一个心跳包</t>
+  </si>
+  <si>
     <t>time</t>
   </si>
   <si>
     <t>发送的时间，格式为yyyy/MM/dd HH:mm:ss,如2016/07/29 14:30:05</t>
   </si>
   <si>
-    <t>{"type":"check","devcode":"2016-0729-001","time":"2016/07/29 14:30:05"}</t>
+    <t>{"type":"check","devcode":"2016-0729-001","firstbeat":"Y","time":"2016/07/29 14:30:05"}</t>
   </si>
   <si>
     <t>服务端</t>
@@ -112,9 +121,6 @@
   </si>
   <si>
     <t>result</t>
-  </si>
-  <si>
-    <t>Y或N</t>
   </si>
   <si>
     <t>接收结果,Y表示下载成功，N表示下载失败</t>
@@ -1192,10 +1198,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="A55" sqref="A55:E55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -1266,404 +1272,407 @@
       <c r="C5" t="s">
         <v>11</v>
       </c>
+      <c r="D5" t="s">
+        <v>12</v>
+      </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="A6" s="2"/>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>1</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
         <v>6</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D8" t="s">
         <v>7</v>
       </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="2"/>
-      <c r="B8">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>9</v>
-      </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="2"/>
       <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" s="2"/>
+      <c r="B10">
         <v>3</v>
       </c>
-      <c r="C9" t="s">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" s="1" customFormat="1" spans="1:1">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" s="1" customFormat="1" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" t="s">
         <v>2</v>
       </c>
-      <c r="C13" t="s">
+      <c r="C14" t="s">
         <v>3</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D14" t="s">
         <v>4</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E14" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="2"/>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s">
-        <v>6</v>
-      </c>
-      <c r="D14" t="s">
-        <v>19</v>
-      </c>
-      <c r="E14" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="2"/>
       <c r="B15">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="2"/>
       <c r="B16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C16" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="2"/>
       <c r="B17">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="2"/>
       <c r="B18">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="2"/>
       <c r="B19">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="2"/>
       <c r="B20">
+        <v>6</v>
+      </c>
+      <c r="C20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" s="2"/>
+      <c r="B21">
         <v>7</v>
       </c>
-      <c r="C20" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="21" s="1" customFormat="1" ht="54" customHeight="1" spans="1:5">
-      <c r="A21" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="2" t="s">
+      <c r="C21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="22" s="1" customFormat="1" ht="54" customHeight="1" spans="1:5">
+      <c r="A22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3"/>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>1</v>
       </c>
-      <c r="C22" t="s">
+      <c r="C23" t="s">
         <v>6</v>
       </c>
-      <c r="D22" t="s">
-        <v>19</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="2"/>
-      <c r="B23">
-        <v>2</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
+      <c r="D23" t="s">
+        <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:5">
       <c r="A24" s="2"/>
       <c r="B24">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:5">
       <c r="A25" s="2"/>
       <c r="B25">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
         <v>25</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:5">
       <c r="A26" s="2"/>
       <c r="B26">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:5">
       <c r="A27" s="2"/>
       <c r="B27">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D27" t="s">
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:5">
       <c r="A28" s="2"/>
       <c r="B28">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" s="2"/>
+      <c r="B29">
         <v>7</v>
       </c>
-      <c r="C28" t="s">
-        <v>11</v>
-      </c>
-      <c r="E28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="29" s="1" customFormat="1" ht="54" customHeight="1" spans="1:5">
-      <c r="A29" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B29" s="3"/>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" s="2" t="s">
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E29" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
+    </row>
+    <row r="30" s="1" customFormat="1" ht="54" customHeight="1" spans="1:5">
+      <c r="A30" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
     </row>
     <row r="32" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" t="s">
         <v>2</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C33" t="s">
         <v>3</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D33" t="s">
         <v>4</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E33" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" s="2"/>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" t="s">
-        <v>6</v>
-      </c>
-      <c r="D33" t="s">
-        <v>38</v>
-      </c>
-      <c r="E33" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:5">
       <c r="A34" s="2"/>
       <c r="B34">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="A35" s="2"/>
       <c r="B35">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C35" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:5">
       <c r="A36" s="2"/>
       <c r="B36">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E36" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:5">
       <c r="A37" s="2"/>
       <c r="B37">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C37" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" t="s">
         <v>43</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>44</v>
-      </c>
-      <c r="E37" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:5">
       <c r="A38" s="2"/>
       <c r="B38">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C38" t="s">
+        <v>45</v>
+      </c>
+      <c r="D38" t="s">
         <v>46</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>47</v>
-      </c>
-      <c r="E38" t="s">
-        <v>48</v>
       </c>
     </row>
     <row r="39" spans="1:5">
       <c r="A39" s="2"/>
       <c r="B39">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C39" t="s">
+        <v>48</v>
+      </c>
+      <c r="D39" t="s">
         <v>49</v>
       </c>
       <c r="E39" t="s">
@@ -1673,7 +1682,7 @@
     <row r="40" spans="1:5">
       <c r="A40" s="2"/>
       <c r="B40">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C40" t="s">
         <v>51</v>
@@ -1685,7 +1694,7 @@
     <row r="41" spans="1:5">
       <c r="A41" s="2"/>
       <c r="B41">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
         <v>53</v>
@@ -1697,7 +1706,7 @@
     <row r="42" spans="1:5">
       <c r="A42" s="2"/>
       <c r="B42">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
         <v>55</v>
@@ -1709,7 +1718,7 @@
     <row r="43" spans="1:5">
       <c r="A43" s="2"/>
       <c r="B43">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C43" t="s">
         <v>57</v>
@@ -1721,7 +1730,7 @@
     <row r="44" spans="1:5">
       <c r="A44" s="2"/>
       <c r="B44">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C44" t="s">
         <v>59</v>
@@ -1733,386 +1742,398 @@
     <row r="45" spans="1:5">
       <c r="A45" s="2"/>
       <c r="B45">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C45" t="s">
-        <v>27</v>
+        <v>61</v>
       </c>
       <c r="E45" t="s">
-        <v>28</v>
+        <v>62</v>
       </c>
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="2"/>
       <c r="B46">
+        <v>13</v>
+      </c>
+      <c r="C46" t="s">
+        <v>30</v>
+      </c>
+      <c r="E46" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="2"/>
+      <c r="B47">
         <v>14</v>
       </c>
-      <c r="C46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" s="1" customFormat="1" ht="86" customHeight="1" spans="1:5">
-      <c r="A47" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="3"/>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="2" t="s">
+      <c r="C47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="48" s="1" customFormat="1" ht="86" customHeight="1" spans="1:5">
+      <c r="A48" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="3"/>
+      <c r="D48" s="3"/>
+      <c r="E48" s="3"/>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B48">
+      <c r="B49">
         <v>1</v>
       </c>
-      <c r="C48" t="s">
+      <c r="C49" t="s">
         <v>6</v>
       </c>
-      <c r="D48" t="s">
-        <v>38</v>
-      </c>
-      <c r="E48" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="2"/>
-      <c r="B49">
-        <v>2</v>
-      </c>
-      <c r="C49" t="s">
-        <v>9</v>
+      <c r="D49" t="s">
+        <v>40</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>41</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="2"/>
       <c r="B50">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C50" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E50" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="51" spans="1:5">
       <c r="A51" s="2"/>
       <c r="B51">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>40</v>
-      </c>
-      <c r="D51" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E51" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="2"/>
       <c r="B52">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C52" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="D52" t="s">
+        <v>43</v>
       </c>
       <c r="E52" t="s">
-        <v>34</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:5">
       <c r="A53" s="2"/>
       <c r="B53">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" t="s">
-        <v>31</v>
-      </c>
-      <c r="D53" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E53" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:5">
       <c r="A54" s="2"/>
       <c r="B54">
+        <v>6</v>
+      </c>
+      <c r="C54" t="s">
+        <v>34</v>
+      </c>
+      <c r="D54" t="s">
+        <v>12</v>
+      </c>
+      <c r="E54" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55" s="2"/>
+      <c r="B55">
         <v>7</v>
       </c>
-      <c r="C54" t="s">
-        <v>11</v>
-      </c>
-      <c r="E54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="55" s="1" customFormat="1" ht="36" customHeight="1" spans="1:5">
-      <c r="A55" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="B55" s="3"/>
-      <c r="C55" s="3"/>
-      <c r="D55" s="3"/>
-      <c r="E55" s="3"/>
-    </row>
-    <row r="57" spans="1:5">
-      <c r="A57" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
+      <c r="C55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="56" s="1" customFormat="1" ht="36" customHeight="1" spans="1:5">
+      <c r="A56" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+      <c r="E56" s="3"/>
     </row>
     <row r="58" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" t="s">
+        <v>67</v>
+      </c>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" t="s">
         <v>2</v>
       </c>
-      <c r="C58" t="s">
+      <c r="C59" t="s">
         <v>3</v>
       </c>
-      <c r="D58" t="s">
+      <c r="D59" t="s">
         <v>4</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E59" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
-      <c r="A59" s="2"/>
-      <c r="B59">
-        <v>1</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>66</v>
-      </c>
-      <c r="E59" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="60" spans="1:5">
       <c r="A60" s="2"/>
       <c r="B60">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>68</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="61" spans="1:5">
       <c r="A61" s="2"/>
       <c r="B61">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C61" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E61" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="62" spans="1:5">
       <c r="A62" s="2"/>
       <c r="B62">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C62" t="s">
-        <v>40</v>
-      </c>
-      <c r="D62" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="E62" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="63" spans="1:5">
       <c r="A63" s="2"/>
       <c r="B63">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C63" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="D63" t="s">
+        <v>43</v>
       </c>
       <c r="E63" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:5">
       <c r="A64" s="2"/>
       <c r="B64">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>30</v>
+      </c>
+      <c r="E64" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="2"/>
+      <c r="B65">
         <v>6</v>
       </c>
-      <c r="C64" t="s">
-        <v>11</v>
-      </c>
-      <c r="E64" t="s">
+      <c r="C65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="31" customHeight="1" spans="1:5">
+      <c r="A66" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+      <c r="E66" s="3"/>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="65" s="1" customFormat="1" ht="31" customHeight="1" spans="1:5">
-      <c r="A65" s="3" t="s">
+      <c r="E67" t="s">
         <v>69</v>
-      </c>
-      <c r="B65" s="3"/>
-      <c r="C65" s="3"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="3"/>
-    </row>
-    <row r="66" spans="1:5">
-      <c r="A66" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B66">
-        <v>1</v>
-      </c>
-      <c r="C66" t="s">
-        <v>6</v>
-      </c>
-      <c r="D66" t="s">
-        <v>66</v>
-      </c>
-      <c r="E66" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
-      <c r="A67" s="2"/>
-      <c r="B67">
-        <v>2</v>
-      </c>
-      <c r="C67" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="68" spans="1:5">
       <c r="A68" s="2"/>
       <c r="B68">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C68" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="E68" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="1:5">
       <c r="A69" s="2"/>
       <c r="B69">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C69" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="E69" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
     </row>
     <row r="70" spans="1:5">
       <c r="A70" s="2"/>
       <c r="B70">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C70" t="s">
-        <v>31</v>
-      </c>
-      <c r="D70" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="E70" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:5">
       <c r="A71" s="2"/>
       <c r="B71">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C71" t="s">
-        <v>27</v>
+        <v>34</v>
+      </c>
+      <c r="D71" t="s">
+        <v>12</v>
       </c>
       <c r="E71" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:5">
       <c r="A72" s="2"/>
       <c r="B72">
+        <v>6</v>
+      </c>
+      <c r="C72" t="s">
+        <v>30</v>
+      </c>
+      <c r="E72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73" s="2"/>
+      <c r="B73">
         <v>7</v>
       </c>
-      <c r="C72" t="s">
-        <v>11</v>
-      </c>
-      <c r="E72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" s="1" customFormat="1" ht="39" customHeight="1" spans="1:5">
-      <c r="A73" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="3"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3"/>
-    </row>
-    <row r="75" ht="60" customHeight="1" spans="1:5">
-      <c r="A75" s="4" t="s">
+      <c r="C73" t="s">
+        <v>14</v>
+      </c>
+      <c r="E73" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="4"/>
-      <c r="C75" s="4"/>
-      <c r="D75" s="4"/>
-      <c r="E75" s="4"/>
+    </row>
+    <row r="74" s="1" customFormat="1" ht="39" customHeight="1" spans="1:5">
+      <c r="A74" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="3"/>
+    </row>
+    <row r="76" ht="60" customHeight="1" spans="1:5">
+      <c r="A76" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B76" s="4"/>
+      <c r="C76" s="4"/>
+      <c r="D76" s="4"/>
+      <c r="E76" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="21">
     <mergeCell ref="A1:E1"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A10:E10"/>
-    <mergeCell ref="A12:E12"/>
-    <mergeCell ref="A21:E21"/>
-    <mergeCell ref="A29:E29"/>
-    <mergeCell ref="A31:E31"/>
-    <mergeCell ref="A47:E47"/>
-    <mergeCell ref="A55:E55"/>
-    <mergeCell ref="A57:E57"/>
-    <mergeCell ref="A65:E65"/>
-    <mergeCell ref="A73:E73"/>
-    <mergeCell ref="A75:E75"/>
-    <mergeCell ref="A2:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A13:A20"/>
-    <mergeCell ref="A22:A28"/>
-    <mergeCell ref="A32:A46"/>
-    <mergeCell ref="A48:A54"/>
-    <mergeCell ref="A58:A64"/>
-    <mergeCell ref="A66:A72"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A13:E13"/>
+    <mergeCell ref="A22:E22"/>
+    <mergeCell ref="A30:E30"/>
+    <mergeCell ref="A32:E32"/>
+    <mergeCell ref="A48:E48"/>
+    <mergeCell ref="A56:E56"/>
+    <mergeCell ref="A58:E58"/>
+    <mergeCell ref="A66:E66"/>
+    <mergeCell ref="A74:E74"/>
+    <mergeCell ref="A76:E76"/>
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A14:A21"/>
+    <mergeCell ref="A23:A29"/>
+    <mergeCell ref="A33:A47"/>
+    <mergeCell ref="A49:A55"/>
+    <mergeCell ref="A59:A65"/>
+    <mergeCell ref="A67:A73"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>

--- a/documents/JSON协议.xlsx
+++ b/documents/JSON协议.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19095" windowHeight="7620"/>
+    <workbookView windowWidth="19095" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78">
   <si>
     <t>心跳包</t>
   </si>
@@ -225,16 +225,64 @@
     <t>delete</t>
   </si>
   <si>
+    <r>
+      <t>消息类型，delete类型表示资源删除，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>deleteAll类型表示删除所有资源</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
+      <t>文件名，</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>如果filename为空，则表示删除设备的所有资源
+根据文件名来删除，可不理会pubid</t>
+    </r>
+  </si>
+  <si>
+    <t>时间，格式为yyyy-MM-dd HH:mm:ss</t>
+  </si>
+  <si>
+    <t>{"type":"delete","pubid":"158470fa-44b0-11e6-b638-ef70639ff5ec","devcode":"2016-0729-001","filename":"test.txt","restype":"txt","time":"2016/07/29 19:25:32"}</t>
+  </si>
+  <si>
     <t>消息类型，delete类型表示资源删除</t>
   </si>
   <si>
-    <t>时间，格式为yyyy-MM-dd HH:mm:ss</t>
-  </si>
-  <si>
-    <t>{"type":"delete","pubid":"158470fa-44b0-11e6-b638-ef70639ff5ec","devcode":"2016-0729-001","filename":"test.txt","restype":"txt","time":"2016/07/29 19:25:32"}</t>
-  </si>
-  <si>
-    <t>删除结果,Y表示删除成功，N表示删除失败</t>
+    <r>
+      <t>删除结果,Y表示删除成功，N表示删除失败。</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>对于删除全部资源，返回Y,则认为所有删除都成功，返回N，则认为所有删除都失败</t>
+    </r>
   </si>
   <si>
     <t>反馈时间，格式为yyyy-MM-dd HH:mm:ss</t>
@@ -251,12 +299,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,18 +321,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -296,55 +359,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -366,7 +389,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -374,14 +397,54 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -402,19 +465,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -426,187 +481,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -620,25 +675,12 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -689,6 +731,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
@@ -706,168 +772,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -878,6 +933,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1201,14 +1265,14 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:E7"/>
+      <selection activeCell="A1" sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
-    <col min="3" max="3" width="10.375" customWidth="1"/>
-    <col min="4" max="4" width="19.375" customWidth="1"/>
-    <col min="5" max="5" width="61.25" customWidth="1"/>
+    <col min="3" max="3" width="10.3716814159292" customWidth="1"/>
+    <col min="4" max="4" width="19.3716814159292" customWidth="1"/>
+    <col min="5" max="5" width="70.0884955752212" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1925,7 +1989,7 @@
       <c r="D60" t="s">
         <v>68</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="4" t="s">
         <v>69</v>
       </c>
     </row>
@@ -1941,7 +2005,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" ht="27" spans="1:5">
       <c r="A62" s="2"/>
       <c r="B62">
         <v>3</v>
@@ -1949,8 +2013,8 @@
       <c r="C62" t="s">
         <v>24</v>
       </c>
-      <c r="E62" t="s">
-        <v>25</v>
+      <c r="E62" s="5" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -1989,12 +2053,12 @@
         <v>14</v>
       </c>
       <c r="E65" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" s="1" customFormat="1" ht="31" customHeight="1" spans="1:5">
       <c r="A66" s="3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66" s="3"/>
       <c r="C66" s="3"/>
@@ -2015,7 +2079,7 @@
         <v>68</v>
       </c>
       <c r="E67" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2030,7 +2094,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" ht="12" customHeight="1" spans="1:5">
       <c r="A69" s="2"/>
       <c r="B69">
         <v>3</v>
@@ -2054,7 +2118,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" ht="27" spans="1:5">
       <c r="A71" s="2"/>
       <c r="B71">
         <v>5</v>
@@ -2065,8 +2129,8 @@
       <c r="D71" t="s">
         <v>12</v>
       </c>
-      <c r="E71" t="s">
-        <v>72</v>
+      <c r="E71" s="6" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2090,12 +2154,12 @@
         <v>14</v>
       </c>
       <c r="E73" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74" s="1" customFormat="1" ht="39" customHeight="1" spans="1:5">
       <c r="A74" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B74" s="3"/>
       <c r="C74" s="3"/>
@@ -2103,13 +2167,13 @@
       <c r="E74" s="3"/>
     </row>
     <row r="76" ht="60" customHeight="1" spans="1:5">
-      <c r="A76" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B76" s="4"/>
-      <c r="C76" s="4"/>
-      <c r="D76" s="4"/>
-      <c r="E76" s="4"/>
+      <c r="A76" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B76" s="7"/>
+      <c r="C76" s="7"/>
+      <c r="D76" s="7"/>
+      <c r="E76" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/documents/JSON协议.xlsx
+++ b/documents/JSON协议.xlsx
@@ -226,6 +226,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>消息类型，delete类型表示资源删除，</t>
     </r>
     <r>
@@ -241,11 +246,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
       <t>文件名，</t>
     </r>
     <r>
@@ -259,6 +259,16 @@
       <t>如果filename为空，则表示删除设备的所有资源
 根据文件名来删除，可不理会pubid</t>
     </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
+      <t>；如果文件名以|分割，则表示要删除多个文件</t>
+    </r>
   </si>
   <si>
     <t>时间，格式为yyyy-MM-dd HH:mm:ss</t>
@@ -271,6 +281,11 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <charset val="134"/>
+      </rPr>
       <t>删除结果,Y表示删除成功，N表示删除失败。</t>
     </r>
     <r>
@@ -299,12 +314,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -322,9 +337,68 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -337,14 +411,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -360,21 +449,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,14 +457,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -403,56 +471,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -481,37 +502,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -523,145 +682,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -672,6 +693,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -701,32 +761,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -749,24 +788,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -777,148 +798,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -938,7 +959,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1264,8 +1285,8 @@
   <sheetPr/>
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:E1"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66:E66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2005,7 +2026,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" ht="27" spans="1:5">
+    <row r="62" ht="40.5" spans="1:5">
       <c r="A62" s="2"/>
       <c r="B62">
         <v>3</v>

--- a/documents/JSON协议.xlsx
+++ b/documents/JSON协议.xlsx
@@ -229,6 +229,7 @@
       <rPr>
         <sz val="11"/>
         <color theme="1"/>
+        <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
       <t>消息类型，delete类型表示资源删除，</t>
@@ -246,6 +247,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>文件名，</t>
     </r>
     <r>
@@ -281,11 +288,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <charset val="134"/>
-      </rPr>
       <t>删除结果,Y表示删除成功，N表示删除失败。</t>
     </r>
     <r>
@@ -296,7 +298,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>对于删除全部资源，返回Y,则认为所有删除都成功，返回N，则认为所有删除都失败</t>
+      <t>对于删除全部资源，返回Y,则认为所有删除都成功，返回N，则认为所有删除都失败。对于删除多个资源的，多个资源都删除，则返回Y，否则返回N</t>
     </r>
   </si>
   <si>
@@ -314,10 +316,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="179" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -342,8 +344,9 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -357,45 +360,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -418,7 +384,21 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -433,29 +413,6 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -465,7 +422,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -487,6 +451,44 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -502,187 +504,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -693,45 +695,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -761,11 +724,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -784,45 +795,36 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -831,16 +833,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -849,101 +854,98 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -960,9 +962,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1286,7 +1285,7 @@
   <dimension ref="A1:E76"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A66" sqref="A66:E66"/>
+      <selection activeCell="E71" sqref="E71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2139,7 +2138,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" ht="27" spans="1:5">
+    <row r="71" ht="40.5" spans="1:5">
       <c r="A71" s="2"/>
       <c r="B71">
         <v>5</v>
@@ -2150,7 +2149,7 @@
       <c r="D71" t="s">
         <v>12</v>
       </c>
-      <c r="E71" s="6" t="s">
+      <c r="E71" s="5" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2188,13 +2187,13 @@
       <c r="E74" s="3"/>
     </row>
     <row r="76" ht="60" customHeight="1" spans="1:5">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B76" s="7"/>
-      <c r="C76" s="7"/>
-      <c r="D76" s="7"/>
-      <c r="E76" s="7"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="21">

--- a/documents/JSON协议.xlsx
+++ b/documents/JSON协议.xlsx
@@ -247,12 +247,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
       <t>文件名，</t>
     </r>
     <r>
@@ -266,16 +260,6 @@
       <t>如果filename为空，则表示删除设备的所有资源
 根据文件名来删除，可不理会pubid</t>
     </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>；如果文件名以|分割，则表示要删除多个文件</t>
-    </r>
   </si>
   <si>
     <t>时间，格式为yyyy-MM-dd HH:mm:ss</t>
@@ -298,7 +282,7 @@
         <rFont val="宋体"/>
         <charset val="134"/>
       </rPr>
-      <t>对于删除全部资源，返回Y,则认为所有删除都成功，返回N，则认为所有删除都失败。对于删除多个资源的，多个资源都删除，则返回Y，否则返回N</t>
+      <t>对于删除全部资源，返回Y,则认为所有删除都成功，返回N，则认为所有删除都失败</t>
     </r>
   </si>
   <si>
@@ -316,8 +300,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -346,45 +330,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -405,7 +351,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -413,8 +359,15 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -422,29 +375,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -458,24 +389,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -490,6 +413,67 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -504,13 +488,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,43 +650,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -570,121 +668,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -700,11 +684,48 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -725,34 +746,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -766,32 +769,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -800,148 +784,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1284,8 +1268,8 @@
   <sheetPr/>
   <dimension ref="A1:E76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="E71" sqref="E71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -2025,7 +2009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" ht="40.5" spans="1:5">
+    <row r="62" ht="27" spans="1:5">
       <c r="A62" s="2"/>
       <c r="B62">
         <v>3</v>
@@ -2138,7 +2122,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="71" ht="40.5" spans="1:5">
+    <row r="71" ht="27" spans="1:5">
       <c r="A71" s="2"/>
       <c r="B71">
         <v>5</v>
